--- a/HollandBarrettWebTest/TestData.xlsx
+++ b/HollandBarrettWebTest/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>VitaminC Item</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>NOMO Vegan Caramel Filled Choc Bar 38g</t>
+  </si>
+  <si>
+    <t>fd</t>
   </si>
 </sst>
 </file>
@@ -1044,13 +1047,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="42.1428571428571" customWidth="1"/>
   </cols>
@@ -1075,6 +1078,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/HollandBarrettWebTest/TestData.xlsx
+++ b/HollandBarrettWebTest/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>VitaminC Item</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>NOMO Vegan Caramel Filled Choc Bar 38g</t>
-  </si>
-  <si>
-    <t>fd</t>
   </si>
 </sst>
 </file>
@@ -1047,13 +1044,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="42.1428571428571" customWidth="1"/>
   </cols>
@@ -1078,11 +1075,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
